--- a/biology/Médecine/1225_en_santé_et_médecine/1225_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1225_en_santé_et_médecine/1225_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1225_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1225_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1225 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1225_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1225_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,18 +523,20 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Dans son testament, le roi de France Louis VIII donne « aux deux mille léproseries [de son royaume], dix mille livres, soit à chacune cent sous[1] », mais la validité de ces chiffres est aujourd'hui remise en question[2].
-On compte quatre-vingts léproseries dans le diocèse de Sens[3].
-À Lyon, fondation d'un hôpital par les chanoines de la paroisse Saint-Just[4].
-Fondation de l'hospice Saint-Jacques de Lille, « pour les femmes en couches[5] ».
-Heinrich von Bitzenhofen et Ulrich Blarer, deux bourgeois « brûlant du feu de charité », fondent à Constance, ville libre du Saint-Empire, un hôpital du Saint-Esprit destiné à l'origine « à tous les pauvres chrétiens », malades ou impotents tant physiques que mentaux, qui devront cependant très vite céder leur place aux résidents payants[6].
-Première mention de l'hôpital Sainte-Marie-Madeleine d'Ely, capitale du comté palatin de l'Île d'Ely, dans l'actuel Cambridgeshire d'Angleterre[7].
-En Angleterre, le gouvernement intervient pour la première fois en matière de santé publique en légiférant sur la réparation des égouts et le contrôle des nuisances[8].
-Vers 1225 : Hugues de Morville, évêque de Coutances, fonde un hospice sur les terres de sa baronnie de Saint-Lô, pour y recevoir « les malades grabataires, les pauvres passants et les enfants trouvés[9] ».
-Entre 1220 et 1225 : dans l'Histoire occidentale (Historia occidentalis), deuxième volume de son Histoire de Jérusalem abrégée (Historia hierosolimitana abbreviata), et à propos des organisations hospitalières de son temps, Jacques de Vitry dresse le tableau d'une Église « dont l'avenir semble assuré par la qualité de [sa] prédication, la richesse [de ses] ordres réguliers et l'exemplarité [de ses] séculiers non seulement ecclésiastiques mais aussi laïcs[10],[11] ».
-1225-1227 : à Toulouse, en Languedoc, l'hôpital dit « Novel », du nom de ses architectes, est édifié sur la rive gauche de la Garonne grâce au leg d'Arnaud d'Aragon, prieur de la Daurade ; officiellement fondé en 1257 comme hôpital Saint-Jacques, il sera uni en 1313 à l'hôpital Sainte-Marie de la Daurade, lui-même fondé en 1230, pour former l'hôpital Saint-Jacques du Bout-du-Pont, et prendre, en 1554, le nom d'hôtel-Dieu Saint-Jacques[12],[13].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Dans son testament, le roi de France Louis VIII donne « aux deux mille léproseries [de son royaume], dix mille livres, soit à chacune cent sous », mais la validité de ces chiffres est aujourd'hui remise en question.
+On compte quatre-vingts léproseries dans le diocèse de Sens.
+À Lyon, fondation d'un hôpital par les chanoines de la paroisse Saint-Just.
+Fondation de l'hospice Saint-Jacques de Lille, « pour les femmes en couches ».
+Heinrich von Bitzenhofen et Ulrich Blarer, deux bourgeois « brûlant du feu de charité », fondent à Constance, ville libre du Saint-Empire, un hôpital du Saint-Esprit destiné à l'origine « à tous les pauvres chrétiens », malades ou impotents tant physiques que mentaux, qui devront cependant très vite céder leur place aux résidents payants.
+Première mention de l'hôpital Sainte-Marie-Madeleine d'Ely, capitale du comté palatin de l'Île d'Ely, dans l'actuel Cambridgeshire d'Angleterre.
+En Angleterre, le gouvernement intervient pour la première fois en matière de santé publique en légiférant sur la réparation des égouts et le contrôle des nuisances.
+Vers 1225 : Hugues de Morville, évêque de Coutances, fonde un hospice sur les terres de sa baronnie de Saint-Lô, pour y recevoir « les malades grabataires, les pauvres passants et les enfants trouvés ».
+Entre 1220 et 1225 : dans l'Histoire occidentale (Historia occidentalis), deuxième volume de son Histoire de Jérusalem abrégée (Historia hierosolimitana abbreviata), et à propos des organisations hospitalières de son temps, Jacques de Vitry dresse le tableau d'une Église « dont l'avenir semble assuré par la qualité de [sa] prédication, la richesse [de ses] ordres réguliers et l'exemplarité [de ses] séculiers non seulement ecclésiastiques mais aussi laïcs, ».
+1225-1227 : à Toulouse, en Languedoc, l'hôpital dit « Novel », du nom de ses architectes, est édifié sur la rive gauche de la Garonne grâce au leg d'Arnaud d'Aragon, prieur de la Daurade ; officiellement fondé en 1257 comme hôpital Saint-Jacques, il sera uni en 1313 à l'hôpital Sainte-Marie de la Daurade, lui-même fondé en 1230, pour former l'hôpital Saint-Jacques du Bout-du-Pont, et prendre, en 1554, le nom d'hôtel-Dieu Saint-Jacques,.</t>
         </is>
       </c>
     </row>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1225_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1225_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,9 +564,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Urso de Salerne (en) (né à une date inconnue), philosophe scolastique et médecin italien dont les écrits sur la théorie des humeurs, parmi lesquels le De commixtionibus elementorum[14] (« Des [différents] mélanges des [quatre] éléments »), eurent une grande influence sur le philosophe et naturaliste anglais Alexandre Neckam (1157-1217).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Urso de Salerne (en) (né à une date inconnue), philosophe scolastique et médecin italien dont les écrits sur la théorie des humeurs, parmi lesquels le De commixtionibus elementorum (« Des [différents] mélanges des [quatre] éléments »), eurent une grande influence sur le philosophe et naturaliste anglais Alexandre Neckam (1157-1217).</t>
         </is>
       </c>
     </row>
